--- a/Types of users.xlsx
+++ b/Types of users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\neighbourly-digital\neighbourly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC5637-0DEE-43C3-B6DB-7DD80D07BD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8825D9D7-F0E1-4E7E-8FE8-EFF543552D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
